--- a/要旨用グラフ.xlsx
+++ b/要旨用グラフ.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{DE563439-EF04-224E-B56D-4917BB11C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5840" yWindow="2800" windowWidth="27500" windowHeight="16440" xr2:uid="{34861ABA-02FD-E94E-A115-B643BAE6A2D3}"/>
+    <workbookView xWindow="-23900" yWindow="-4180" windowWidth="24000" windowHeight="16440" xr2:uid="{34861ABA-02FD-E94E-A115-B643BAE6A2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/要旨用グラフ.xlsx
+++ b/要旨用グラフ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fadbf8cd42e59b5/akihiro/学校資料/研究室/卒論/graduation-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE563439-EF04-224E-B56D-4917BB11C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{DE563439-EF04-224E-B56D-4917BB11C18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C37ABB44-20E5-8041-86C6-8BA355D2FAF5}"/>
   <bookViews>
-    <workbookView xWindow="-23900" yWindow="-4180" windowWidth="24000" windowHeight="16440" xr2:uid="{34861ABA-02FD-E94E-A115-B643BAE6A2D3}"/>
+    <workbookView xWindow="5840" yWindow="2800" windowWidth="27500" windowHeight="16440" xr2:uid="{34861ABA-02FD-E94E-A115-B643BAE6A2D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4990,7 +4990,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
       <sheetName val="グラフ"/>
       <sheetName val="実験データ入力1"/>
       <sheetName val="実験データ入力2"/>
@@ -5002,8 +5001,7 @@
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="3">
         <row r="17">
           <cell r="B17">
             <v>0</v>
@@ -5470,8 +5468,8 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6296,9 +6294,9 @@
       <sheetName val="README"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="17">
           <cell r="B17">
@@ -6611,7 +6609,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="A2">
@@ -6619,7 +6617,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6638,9 +6636,9 @@
       <sheetName val="README"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="17">
           <cell r="B17">
@@ -6953,7 +6951,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="A2">
@@ -6961,7 +6959,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7267,7 +7265,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
